--- a/docs/compare.xlsx
+++ b/docs/compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ha\dev\bgslibrary-examples-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE793C-C60B-49E6-83DF-64296C8AA554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BDA5F-B63C-414A-A1E9-BAB3CF1EEA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="16440" windowHeight="28035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
